--- a/doc_ex2/Algorithm comparisons/Algo2 BM2 ts2 comparison.xlsx
+++ b/doc_ex2/Algorithm comparisons/Algo2 BM2 ts2 comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\doc_ex2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\Csv_to_Kml_Converter\doc_ex2\Algorithm comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="41">
   <si>
     <t>Ariel_University</t>
   </si>
@@ -144,13 +144,16 @@
   </si>
   <si>
     <t>Average for all rows</t>
+  </si>
+  <si>
+    <t>Average of Lat and Lon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +192,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +232,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -403,13 +418,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,6 +437,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,10 +466,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -767,49 +788,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1655062-209A-4B36-861B-E6DC8C57DFF6}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E50"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.73046875" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
+      <c r="S1" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -822,7 +847,7 @@
       <c r="D2">
         <v>35.209395148851598</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="5">
         <v>692.92409586027998</v>
       </c>
       <c r="F2" t="s">
@@ -841,15 +866,15 @@
         <v>692.02834304468001</v>
       </c>
       <c r="L2">
-        <f>C2-H2</f>
+        <f>ABS(C2-H2)</f>
         <v>2.305174072034788E-4</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:N17" si="0">D2-I2</f>
+        <f>ABS(D2-I2)</f>
         <v>1.2669784310048726E-4</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
+        <f>ABS(E2-J2)</f>
         <v>0.89575281559996256</v>
       </c>
       <c r="O2">
@@ -858,10 +883,14 @@
       </c>
       <c r="Q2" s="4">
         <f>AVERAGE(O2:O50)</f>
-        <v>0.38443893964819953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.3211455899594078</v>
+      </c>
+      <c r="S2" s="17">
+        <f>AVERAGE(L2:L50,M2:M50)</f>
+        <v>2.6982661218190291E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -874,7 +903,7 @@
       <c r="D3">
         <v>35.210244218587903</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="6">
         <v>700.33593950608997</v>
       </c>
       <c r="F3" t="s">
@@ -893,11 +922,11 @@
         <v>691.10463901062406</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L50" si="1">C3-H3</f>
-        <v>-5.3791723059504193E-4</v>
+        <f t="shared" ref="L3:N50" si="0">ABS(C3-H3)</f>
+        <v>5.3791723059504193E-4</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M3:M50" si="1">ABS(D3-I3)</f>
         <v>4.7435446820287552E-4</v>
       </c>
       <c r="N3">
@@ -906,10 +935,10 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O50" si="2">(L3+M3+N3)/3</f>
-        <v>3.0770789775678415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.0774375890549046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -922,7 +951,7 @@
       <c r="D4">
         <v>35.210121883926703</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="6">
         <v>697.41604596731599</v>
       </c>
       <c r="F4" t="s">
@@ -941,11 +970,11 @@
         <v>691.08189149673001</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
-        <v>-6.0899221409727033E-4</v>
+        <f t="shared" si="0"/>
+        <v>6.0899221409727033E-4</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.699209396046399E-4</v>
       </c>
       <c r="N4">
@@ -954,10 +983,10 @@
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>2.1113051331038313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.85">
+        <v>2.1117111279132295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -970,7 +999,7 @@
       <c r="D5">
         <v>35.210121883926703</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="6">
         <v>697.41604596731599</v>
       </c>
       <c r="F5" t="s">
@@ -989,23 +1018,23 @@
         <v>700.99846570760496</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3914407904612744E-5</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>-1.8297702297331853E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.8297702297331853E-5</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>-3.5824197402889695</v>
+        <v>3.5824197402889695</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>-1.194138041194454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.1941539841330571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1047,7 @@
       <c r="D6">
         <v>35.209889614264497</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="6">
         <v>706.64372884850502</v>
       </c>
       <c r="F6" t="s">
@@ -1037,12 +1066,12 @@
         <v>699.86265913652699</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>-2.0686327033558882E-6</v>
+        <f t="shared" si="0"/>
+        <v>2.0686327033558882E-6</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>-2.6528894402133574E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.6528894402133574E-5</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -1050,10 +1079,10 @@
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>2.2603470381503095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.85">
+        <v>2.2603661031683799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1095,7 @@
       <c r="D7">
         <v>35.209719721035199</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="6">
         <v>696.59464873055799</v>
       </c>
       <c r="F7" t="s">
@@ -1085,23 +1114,23 @@
         <v>699.76637171506798</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.624108442044303E-4</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4297900139913509E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>-3.1717229845099837</v>
+        <v>3.1717229845099837</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>-1.0571058648881266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.0573761247851958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1114,7 +1143,7 @@
       <c r="D8">
         <v>35.210195200337999</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="6">
         <v>697.40046798052799</v>
       </c>
       <c r="F8" t="s">
@@ -1133,23 +1162,23 @@
         <v>701.23188884006004</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1904007759966362E-4</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8683563696936289E-5</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>-3.8314208595320451</v>
+        <v>3.8314208595320451</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>-1.2770777119635828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.2772028610577806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1191,7 @@
       <c r="D9">
         <v>35.210121883926703</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="6">
         <v>697.41604596731599</v>
       </c>
       <c r="F9" t="s">
@@ -1181,23 +1210,23 @@
         <v>698.18783064661397</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
-        <v>-2.580148578985586E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.580148578985586E-4</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6554732570028818E-4</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>-0.77178467929797989</v>
+        <v>0.77178467929797989</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>-0.25729238227672607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.85">
+        <v>0.25740274716052625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1239,7 @@
       <c r="D10">
         <v>35.210121883926703</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="6">
         <v>697.41604596731599</v>
       </c>
       <c r="F10" t="s">
@@ -1229,23 +1258,23 @@
         <v>701.850169932688</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8886918204639187E-5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>-3.370276039760256E-5</v>
+        <f t="shared" si="1"/>
+        <v>3.370276039760256E-5</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>-4.4341239653720095</v>
+        <v>4.4341239653720095</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>-1.4780395937380675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.4780655183502038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1287,7 @@
       <c r="D11">
         <v>35.210121883926703</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="6">
         <v>697.41604596731599</v>
       </c>
       <c r="F11" t="s">
@@ -1277,23 +1306,23 @@
         <v>701.59568324376096</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.13227462000998E-4</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0724665525998489E-3</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>-4.1796372764449643</v>
+        <v>4.1796372764449643</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>-1.3926838608101211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.3937409901531883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1306,7 +1335,7 @@
       <c r="D12">
         <v>35.210270642633198</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="6">
         <v>697.38443829417895</v>
       </c>
       <c r="F12" t="s">
@@ -1325,23 +1354,23 @@
         <v>698.99772049542196</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9026429459454448E-4</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.573677868999539E-4</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>-1.6132822012430097</v>
+        <v>1.6132822012430097</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>-0.53741152305383844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.85">
+        <v>0.5381099444415014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1383,7 @@
       <c r="D13">
         <v>35.209429861830202</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="6">
         <v>692.90304860886397</v>
       </c>
       <c r="F13" t="s">
@@ -1373,23 +1402,23 @@
         <v>697.29569461806</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3015378825969037E-3</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4154788363001103E-3</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>-4.392646009196028</v>
+        <v>4.392646009196028</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>-1.4633096641590437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.4651210086383084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1431,7 @@
       <c r="D14">
         <v>35.210024139137197</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="6">
         <v>696.98780725220399</v>
       </c>
       <c r="F14" t="s">
@@ -1421,23 +1450,23 @@
         <v>700.11538114676102</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.7282613989714264E-6</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
-        <v>-1.1685413510065246E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.1685413510065246E-4</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>-3.1275738945570311</v>
+        <v>3.1275738945570311</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>-1.0425606734769108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.85">
+        <v>1.0425664923178435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1479,7 @@
       <c r="D15">
         <v>35.210379392030802</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="6">
         <v>707.18396109450703</v>
       </c>
       <c r="F15" t="s">
@@ -1469,11 +1498,11 @@
         <v>696.41717550834301</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
-        <v>-5.3984041480248379E-4</v>
+        <f t="shared" si="0"/>
+        <v>5.3984041480248379E-4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8757909990039252E-4</v>
       </c>
       <c r="N15">
@@ -1482,10 +1511,10 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>3.5888777749497058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.85">
+        <v>3.5892376685595742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1527,7 @@
       <c r="D16">
         <v>35.209422260562803</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="6">
         <v>697.55132586141997</v>
       </c>
       <c r="F16" t="s">
@@ -1517,11 +1546,11 @@
         <v>696.66884633804898</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3849999320191273E-4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5179472450531648E-4</v>
       </c>
       <c r="N16">
@@ -1533,7 +1562,7 @@
         <v>0.29432327269623215</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1575,7 @@
       <c r="D17">
         <v>35.209823352022802</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="6">
         <v>689.58099035908901</v>
       </c>
       <c r="F17" t="s">
@@ -1565,12 +1594,12 @@
         <v>687.39444276925701</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.4324098880110796E-4</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>-2.2048926069828667E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.2048926069828667E-4</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -1578,10 +1607,10 @@
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>0.72892344718670188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.85">
+        <v>0.72907044002716737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1623,7 @@
       <c r="D18">
         <v>35.210191332947502</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="6">
         <v>699.07366078581299</v>
       </c>
       <c r="F18" t="s">
@@ -1613,23 +1642,23 @@
         <v>700.53183098173395</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3559187999828737E-5</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M50" si="3">D18-I18</f>
+        <f t="shared" si="1"/>
         <v>4.2310516001009546E-5</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N50" si="4">E18-J18</f>
-        <v>-1.4581701959209568</v>
+        <f t="shared" si="0"/>
+        <v>1.4581701959209568</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>-0.48602144207231862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.85">
+        <v>0.48609202187498585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1642,7 +1671,7 @@
       <c r="D19">
         <v>35.209597096198401</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="6">
         <v>696.85161076365102</v>
       </c>
       <c r="F19" t="s">
@@ -1661,23 +1690,23 @@
         <v>697.11175173640595</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.892124480055827E-5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>-3.1102752370060216E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.1102752370060216E-4</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
-        <v>-0.26014097275492531</v>
+        <f t="shared" si="0"/>
+        <v>0.26014097275492531</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>-8.6797693011275115E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.85">
+        <v>8.6836973841142154E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1719,7 @@
       <c r="D20">
         <v>35.210164133311501</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="6">
         <v>699.25236462267901</v>
       </c>
       <c r="F20" t="s">
@@ -1709,23 +1738,23 @@
         <v>706.02845559126695</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1283764790069881E-4</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2849923010094244E-6</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
-        <v>-6.7760909685879369</v>
+        <f t="shared" si="0"/>
+        <v>6.7760909685879369</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>-2.2586256153159119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.2587683637427127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1738,7 +1767,7 @@
       <c r="D21">
         <v>35.209404917623502</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="6">
         <v>697.68431846620103</v>
       </c>
       <c r="F21" t="s">
@@ -1757,15 +1786,15 @@
         <v>697.18351178037199</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3473996670020369E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.7559588600212237E-4</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.50080668582904764</v>
       </c>
       <c r="O21">
@@ -1773,7 +1802,7 @@
         <v>0.16710567389391665</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1786,7 +1815,7 @@
       <c r="D22">
         <v>35.209161412473001</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="6">
         <v>696.198946076722</v>
       </c>
       <c r="F22" t="s">
@@ -1805,23 +1834,23 @@
         <v>693.27301478445895</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.431183464040032E-4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>-5.4106649349705549E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.4106649349705549E-4</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9259312922630443</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>0.97521111470531707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.85">
+        <v>0.97557182570098178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +1863,7 @@
       <c r="D23">
         <v>35.209456956992298</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="6">
         <v>705.63740016895497</v>
       </c>
       <c r="F23" t="s">
@@ -1853,15 +1882,15 @@
         <v>705.20201805552495</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5231266500137508E-4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.0722839749964805E-4</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.43538211343002331</v>
       </c>
       <c r="O23">
@@ -1869,7 +1898,7 @@
         <v>0.14524721816417477</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1882,7 +1911,7 @@
       <c r="D24">
         <v>35.209634977579199</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="6">
         <v>697.03067598269399</v>
       </c>
       <c r="F24" t="s">
@@ -1901,23 +1930,23 @@
         <v>697.285172303335</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5300420049868535E-4</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>-1.1860348109848928E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.1860348109848928E-4</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
-        <v>-0.25449632064101024</v>
+        <f t="shared" si="0"/>
+        <v>0.25449632064101024</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>-8.4820639973870016E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.85">
+        <v>8.4922642774202473E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1959,7 @@
       <c r="D25">
         <v>35.209794898989401</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="6">
         <v>693.55608158644804</v>
       </c>
       <c r="F25" t="s">
@@ -1949,15 +1978,15 @@
         <v>691.52518024854703</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9584912879698777E-4</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.7107999330032726E-4</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.0309013379010139</v>
       </c>
       <c r="O25">
@@ -1965,7 +1994,7 @@
         <v>0.67718942234103707</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +2007,7 @@
       <c r="D26">
         <v>35.209316439883402</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="6">
         <v>709.94575299058999</v>
       </c>
       <c r="F26" t="s">
@@ -1997,15 +2026,15 @@
         <v>703.89959957221197</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6874069298798986E-5</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.6464658105094259E-5</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.0461534183780259</v>
       </c>
       <c r="O26">
@@ -2013,7 +2042,7 @@
         <v>2.0154089190351434</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +2055,7 @@
       <c r="D27">
         <v>35.2090798657173</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="6">
         <v>706.101938871475</v>
       </c>
       <c r="F27" t="s">
@@ -2045,23 +2074,23 @@
         <v>699.50229705664697</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1736917280132957E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
-        <v>-9.9569708297053694E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.9569708297053694E-5</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.5996418148280327</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>2.1999865380975123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.2000529179030437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2103,7 @@
       <c r="D28">
         <v>35.209996803654398</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="6">
         <v>706.26961399345305</v>
       </c>
       <c r="F28" t="s">
@@ -2093,23 +2122,23 @@
         <v>699.92402311035801</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.7661737100906976E-5</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>-2.1527332440030023E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.1527332440030023E-4</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.345590883095042</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>2.1151577571692477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.1153012727188476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +2151,7 @@
       <c r="D29">
         <v>35.208944939192598</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="6">
         <v>693.21060029618604</v>
       </c>
       <c r="F29" t="s">
@@ -2141,23 +2170,23 @@
         <v>696.28951422518105</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6599393619858347E-4</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.0181537229861988E-4</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
-        <v>-3.0789139289950072</v>
+        <f t="shared" si="0"/>
+        <v>3.0789139289950072</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>-1.0257820398955033</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.85">
+        <v>1.026827246101168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2170,7 +2199,7 @@
       <c r="D30">
         <v>35.209025631204398</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="6">
         <v>699.49470821525699</v>
       </c>
       <c r="F30" t="s">
@@ -2189,23 +2218,23 @@
         <v>699.33137556715803</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
-        <v>-2.0458173963788795E-6</v>
+        <f t="shared" si="0"/>
+        <v>2.0458173963788795E-6</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>-2.5614276992769192E-6</v>
+        <f t="shared" si="1"/>
+        <v>2.5614276992769192E-6</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.16333264809895809</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>5.4442680284620813E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.85">
+        <v>5.4445751781351248E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2247,7 @@
       <c r="D31">
         <v>35.209429861830202</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="6">
         <v>692.90304860886397</v>
       </c>
       <c r="F31" t="s">
@@ -2237,23 +2266,23 @@
         <v>695.68354508667198</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.23859125198112E-4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.9598249220301796E-4</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
-        <v>-2.7804964778080148</v>
+        <f t="shared" si="0"/>
+        <v>2.7804964778080148</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>-0.92625887873020452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.85">
+        <v>0.92740543980847201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2295,7 @@
       <c r="D32">
         <v>35.2095163557549</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="6">
         <v>714.22255634425096</v>
       </c>
       <c r="F32" t="s">
@@ -2285,23 +2314,23 @@
         <v>706.71086633827599</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
-        <v>-1.1864068100209124E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.1864068100209124E-4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
-        <v>-8.8238888302782925E-5</v>
+        <f t="shared" si="1"/>
+        <v>8.8238888302782925E-5</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7.5116900059749696</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>2.5038277088018881</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.503965628514758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2314,7 +2343,7 @@
       <c r="D33">
         <v>35.210113204581901</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="6">
         <v>702.59584433243901</v>
       </c>
       <c r="F33" t="s">
@@ -2333,23 +2362,23 @@
         <v>703.99030861972403</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7667200550164353E-4</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>-7.9693346698661571E-5</v>
+        <f t="shared" si="1"/>
+        <v>7.9693346698661571E-5</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
-        <v>-1.3944642872850181</v>
+        <f t="shared" si="0"/>
+        <v>1.3944642872850181</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
-        <v>-0.46478910287540504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.85">
+        <v>0.46490688421240617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2391,7 @@
       <c r="D34">
         <v>35.210121883926703</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="6">
         <v>697.41604596731599</v>
       </c>
       <c r="F34" t="s">
@@ -2381,23 +2410,23 @@
         <v>701.93587244755099</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8852329403482599E-5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>-3.3372003493070679E-5</v>
+        <f t="shared" si="1"/>
+        <v>3.3372003493070679E-5</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
-        <v>-4.5198264802349968</v>
+        <f t="shared" si="0"/>
+        <v>4.5198264802349968</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
-        <v>-1.5066069999696954</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.85">
+        <v>1.5066329015226312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2439,7 @@
       <c r="D35">
         <v>35.209340874695599</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="6">
         <v>692.95700348881701</v>
       </c>
       <c r="F35" t="s">
@@ -2429,15 +2458,15 @@
         <v>691.45548291149896</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5869354370277051E-4</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.7832006970053271E-4</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.5015205773180469</v>
       </c>
       <c r="O35">
@@ -2445,7 +2474,7 @@
         <v>0.50068586364381673</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2487,7 @@
       <c r="D36">
         <v>35.209478514145601</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="6">
         <v>707.38633395615796</v>
       </c>
       <c r="F36" t="s">
@@ -2477,15 +2506,15 @@
         <v>695.117100918608</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.402428658996314E-4</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.9959224201786583E-5</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12.269233037549952</v>
       </c>
       <c r="O36">
@@ -2493,7 +2522,7 @@
         <v>4.0898510798800176</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2535,7 @@
       <c r="D37">
         <v>35.209843355352298</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="6">
         <v>698.41752527371295</v>
       </c>
       <c r="F37" t="s">
@@ -2525,23 +2554,23 @@
         <v>689.36476980467796</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
-        <v>-1.450330436014724E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.450330436014724E-4</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>-2.5756709460011962E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.5756709460011962E-4</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9.0527554690349916</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
-        <v>3.01745095629893</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.85">
+        <v>3.0177193563910643</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2554,7 +2583,7 @@
       <c r="D38">
         <v>35.209718434886902</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="6">
         <v>711.71506857713405</v>
       </c>
       <c r="F38" t="s">
@@ -2573,15 +2602,15 @@
         <v>703.04024287228594</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7909086439592556E-4</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.1106894149957043E-4</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8.6748257048481037</v>
       </c>
       <c r="O38">
@@ -2589,7 +2618,7 @@
         <v>2.8918052882179999</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2602,7 +2631,7 @@
       <c r="D39">
         <v>35.210055914245899</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="6">
         <v>692.76013458682905</v>
       </c>
       <c r="F39" t="s">
@@ -2621,15 +2650,15 @@
         <v>690.35908266091803</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.2258212040025001E-4</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.5216717799689832E-4</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.4010519259110197</v>
       </c>
       <c r="O39">
@@ -2637,7 +2666,7 @@
         <v>0.80064222506980565</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2650,7 +2679,7 @@
       <c r="D40">
         <v>35.209844480541598</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="6">
         <v>689.92297712418701</v>
       </c>
       <c r="F40" t="s">
@@ -2669,23 +2698,23 @@
         <v>689.062851438557</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5841145890505004E-4</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>-1.1569839140435079E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.1569839140435079E-4</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0.86012568563000968</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
-        <v>0.28672279956583679</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.85">
+        <v>0.28679993182677305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2727,7 @@
       <c r="D41">
         <v>35.210121883926703</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="6">
         <v>697.41604596731599</v>
       </c>
       <c r="F41" t="s">
@@ -2717,23 +2746,23 @@
         <v>704.19953840025596</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6781249601981472E-5</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>-2.8247558795158056E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.8247558795158056E-5</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
-        <v>-6.7834924329399655</v>
+        <f t="shared" si="0"/>
+        <v>6.7834924329399655</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
-        <v>-2.261164633083053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.2611824872494544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2775,7 @@
       <c r="D42">
         <v>35.210444022946</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="6">
         <v>705.10488600320105</v>
       </c>
       <c r="F42" t="s">
@@ -2765,15 +2794,15 @@
         <v>701.48761133784797</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.3423632309708182E-4</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.9993013633978762E-3</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.6172746653530794</v>
       </c>
       <c r="O42">
@@ -2781,7 +2810,7 @@
         <v>1.2067360676798582</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2794,7 +2823,7 @@
       <c r="D43">
         <v>35.210225200654101</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="6">
         <v>700.72678986798405</v>
       </c>
       <c r="F43" t="s">
@@ -2813,23 +2842,23 @@
         <v>706.23131353477402</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0154032603065843E-5</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.5375143002956975E-5</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
-        <v>-5.5045236667899644</v>
+        <f t="shared" si="0"/>
+        <v>5.5045236667899644</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
-        <v>-1.8348060458714528</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.85">
+        <v>1.8348763986551901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2871,7 @@
       <c r="D44">
         <v>35.209858828111301</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="6">
         <v>698.51776800188497</v>
       </c>
       <c r="F44" t="s">
@@ -2861,23 +2890,23 @@
         <v>699.35791067700995</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
-        <v>-2.580405629970528E-5</v>
+        <f t="shared" si="0"/>
+        <v>2.580405629970528E-5</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>-1.6254105399582386E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.6254105399582386E-4</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
-        <v>-0.84014267512498009</v>
+        <f t="shared" si="0"/>
+        <v>0.84014267512498009</v>
       </c>
       <c r="O44">
         <f t="shared" si="2"/>
-        <v>-0.28011034007842522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.85">
+        <v>0.28011034007842522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2919,7 @@
       <c r="D45">
         <v>35.209882823518399</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="6">
         <v>706.48458358651101</v>
       </c>
       <c r="F45" t="s">
@@ -2909,23 +2938,23 @@
         <v>699.74068644533202</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
-        <v>-2.483855205070995E-6</v>
+        <f t="shared" si="0"/>
+        <v>2.483855205070995E-6</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>-2.9183714403302474E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.9183714403302474E-5</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6.7438971411789908</v>
       </c>
       <c r="O45">
         <f t="shared" si="2"/>
-        <v>2.2479551578697943</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.85">
+        <v>2.2479762695828662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2938,7 +2967,7 @@
       <c r="D46">
         <v>35.209982507943202</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="6">
         <v>699.32560239259101</v>
       </c>
       <c r="F46" t="s">
@@ -2957,23 +2986,23 @@
         <v>702.95904185520897</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8822323399803054E-4</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.4963720602167996E-5</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
-        <v>-3.6334394626179574</v>
+        <f t="shared" si="0"/>
+        <v>3.6334394626179574</v>
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
-        <v>-1.2110787585544525</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.85">
+        <v>1.2112142165241859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2986,7 +3015,7 @@
       <c r="D47">
         <v>35.2093041444408</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="6">
         <v>710.65499245150602</v>
       </c>
       <c r="F47" t="s">
@@ -3005,23 +3034,23 @@
         <v>707.19376096797998</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.642544873021734E-4</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>-2.4187468979874893E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.4187468979874893E-4</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.4612314835260349</v>
       </c>
       <c r="O47">
         <f t="shared" si="2"/>
-        <v>1.1537179544411795</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.85">
+        <v>1.1538792042343786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3063,7 @@
       <c r="D48">
         <v>35.209866516522901</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="6">
         <v>704.44122232627603</v>
       </c>
       <c r="F48" t="s">
@@ -3053,23 +3082,23 @@
         <v>700.51033481229194</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
-        <v>-2.9971779696325029E-5</v>
+        <f t="shared" si="0"/>
+        <v>2.9971779696325029E-5</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>-7.6829146898660383E-5</v>
+        <f t="shared" si="1"/>
+        <v>7.6829146898660383E-5</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.9308875139840893</v>
       </c>
       <c r="O48">
         <f t="shared" si="2"/>
-        <v>1.3102602376858314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.85">
+        <v>1.3103314383035614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3111,7 @@
       <c r="D49">
         <v>35.209747021357899</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="6">
         <v>706.587713637153</v>
       </c>
       <c r="F49" t="s">
@@ -3101,23 +3130,23 @@
         <v>703.39876061070197</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
-        <v>-8.1401233103406412E-5</v>
+        <f t="shared" si="0"/>
+        <v>8.1401233103406412E-5</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.659510074958348E-4</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1889530264510313</v>
       </c>
       <c r="O49">
         <f t="shared" si="2"/>
-        <v>1.0630125254084746</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.85">
+        <v>1.0630667928972102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3130,7 +3159,7 @@
       <c r="D50">
         <v>35.209960508394801</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="6">
         <v>704.37504504991603</v>
       </c>
       <c r="F50" t="s">
@@ -3149,20 +3178,20 @@
         <v>706.82891766223202</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
-        <v>-2.5001119702494634E-5</v>
+        <f t="shared" si="0"/>
+        <v>2.5001119702494634E-5</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>-6.2269879002485595E-5</v>
+        <f t="shared" si="1"/>
+        <v>6.2269879002485595E-5</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
-        <v>-2.4538726123159904</v>
+        <f t="shared" si="0"/>
+        <v>2.4538726123159904</v>
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
-        <v>-0.81798662777156517</v>
+        <v>0.81798662777156517</v>
       </c>
     </row>
   </sheetData>
